--- a/제작관련문서/제작_일정.xlsx
+++ b/제작관련문서/제작_일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teamproject(puzzlime)\제작관련문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\unity3D_portfolio\제작관련문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEAE735-CA51-4461-A23C-19A0BC1E9482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A397D8-A858-4BD5-A785-B2D48EEBAE07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 일정" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,7 +76,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20
+      <t xml:space="preserve">27
 </t>
     </r>
     <r>
@@ -95,7 +95,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">27
+      <t xml:space="preserve">4
 </t>
     </r>
     <r>
@@ -114,7 +114,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4
+      <t xml:space="preserve">11
 </t>
     </r>
     <r>
@@ -133,7 +133,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">11
+      <t xml:space="preserve">18
 </t>
     </r>
     <r>
@@ -152,25 +152,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 개인 작업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">21
 </t>
     </r>
@@ -261,9 +242,42 @@
       </rPr>
       <t xml:space="preserve">- 사용할 Asset 확정
 - 맵 제작
-- AI 이동 방식 결정
+- 게임 시스템 설계
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 일정 조율
+게임 기획 제작 환경 구성
+  - 작업 저장소 설정 및 버전 관리 프로그램 설치
+  - 게임 제작에 사용할 Asset 탐색 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 만나서 작업</t>
+    </r>
+  </si>
+  <si>
+    <t>게임 세부 규칙 조정
+맵 제작
+  - 바닥, 주위 벽 세우기
+  - 아이템 노드 배치
+  - 몬스터 노드는 오브젝트 배치가 끝난 후 배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,20 +597,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -913,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640296CB-B611-402A-A336-C700C4406A30}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -945,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -954,15 +963,15 @@
         <v>7</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <v>22</v>
@@ -980,12 +989,12 @@
         <v>26</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>29</v>
@@ -1003,12 +1012,12 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6">
         <v>6</v>
@@ -1026,12 +1035,12 @@
         <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
         <v>13</v>
@@ -1049,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1062,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A571C5E-3DE2-4D86-A883-E814160BC55C}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,78 +1083,84 @@
     <col min="2" max="2" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1233,5 +1248,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/제작관련문서/제작_일정.xlsx
+++ b/제작관련문서/제작_일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\unity3D_portfolio\제작관련문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A397D8-A858-4BD5-A785-B2D48EEBAE07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC9C6E5-BED9-4132-8BD7-44341DF162DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,97 @@
   <si>
     <r>
       <t xml:space="preserve">18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 개인 작업</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF9999"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 개인 작업</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 일정 조율
+게임 기획 제작 환경 구성
+  - 작업 저장소 설정 및 버전 관리 프로그램 설치
+  - 게임 제작에 사용할 Asset 탐색 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 세부 규칙 조정
+맵 제작
+  - 바닥, 주위 벽 세우기
+  - 아이템 노드 배치
+  - 몬스터 노드는 오브젝트 배치가 끝난 후 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF9999"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 개인 작업</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 개인 작업</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8
 </t>
     </r>
     <r>
@@ -72,11 +163,49 @@
       <t>- 기획 및 일정 수립
 - 게임 구조 설립 및 역할 분배</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">27
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 사용할 Asset 확정
+- 맵 제작
+- 게임 시스템 설계</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11
 </t>
     </r>
     <r>
@@ -95,7 +224,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4
+      <t xml:space="preserve">26
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF9999"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 개인 작업</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1
 </t>
     </r>
     <r>
@@ -114,7 +262,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">11
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF9999"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 개인 작업</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8
 </t>
     </r>
     <r>
@@ -129,155 +296,6 @@
       </rPr>
       <t>- 개인 작업</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 개인 작업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF9999"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 개인 작업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">28
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF9999"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 개인 작업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF9999"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 개인 작업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF9999"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 개인 작업</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- 사용할 Asset 확정
-- 맵 제작
-- 게임 시스템 설계
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전체 일정 조율
-게임 기획 제작 환경 구성
-  - 작업 저장소 설정 및 버전 관리 프로그램 설치
-  - 게임 제작에 사용할 Asset 탐색 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 만나서 작업</t>
-    </r>
-  </si>
-  <si>
-    <t>게임 세부 규칙 조정
-맵 제작
-  - 바닥, 주위 벽 세우기
-  - 아이템 노드 배치
-  - 몬스터 노드는 오브젝트 배치가 끝난 후 배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,9 +596,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,7 +938,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -958,107 +973,109 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="12" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6">
-        <v>26</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
+    <row r="6" spans="1:7" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="F6" s="9">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9">
-        <v>17</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1073,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A571C5E-3DE2-4D86-A883-E814160BC55C}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,164 +1102,168 @@
   <sheetData>
     <row r="1" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>18</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>21</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/제작관련문서/제작_일정.xlsx
+++ b/제작관련문서/제작_일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\unity3D_portfolio\제작관련문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC9C6E5-BED9-4132-8BD7-44341DF162DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5873C8-0AC3-4A93-BF74-0FDD5B72987F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
   </bookViews>
@@ -938,7 +938,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A571C5E-3DE2-4D86-A883-E814160BC55C}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/제작관련문서/제작_일정.xlsx
+++ b/제작관련문서/제작_일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\unity3D_portfolio\제작관련문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5873C8-0AC3-4A93-BF74-0FDD5B72987F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E1264-E795-4509-A5F0-2C92F13F03DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 일정" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,25 +186,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">11
 </t>
     </r>
@@ -296,6 +277,29 @@
       </rPr>
       <t>- 개인 작업</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 프로젝트 오류 수정
+</t>
+    </r>
+  </si>
+  <si>
+    <t>프로젝트 오류 수정
+ - 비주얼 스튜디오 충돌 문제 발생으로 프로젝트 재설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +619,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640296CB-B611-402A-A336-C700C4406A30}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,10 +990,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,7 +1009,7 @@
       <c r="D3" s="6">
         <v>15</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <v>16</v>
       </c>
       <c r="F3" s="6">
@@ -1016,13 +1026,13 @@
       <c r="B4" s="6">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="16">
         <v>21</v>
       </c>
       <c r="D4" s="6">
         <v>22</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="16">
         <v>23</v>
       </c>
       <c r="F4" s="6">
@@ -1034,48 +1044,48 @@
     </row>
     <row r="5" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="16">
         <v>28</v>
       </c>
       <c r="D5" s="6">
         <v>29</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="16">
         <v>30</v>
       </c>
       <c r="F5" s="6">
         <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="17">
         <v>4</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="17">
         <v>6</v>
       </c>
       <c r="F6" s="9">
         <v>7</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1090,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A571C5E-3DE2-4D86-A883-E814160BC55C}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,9 +1126,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/제작관련문서/제작_일정.xlsx
+++ b/제작관련문서/제작_일정.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\unity3D_portfolio\제작관련문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjlee\Documents\unity3D_portfolio\제작관련문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E1264-E795-4509-A5F0-2C92F13F03DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E4C271-F895-4D59-B4A7-493CAAE2BD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
+    <workbookView xWindow="3825" yWindow="3045" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{77BD2FE7-8B24-412A-8245-B161B7F2B695}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 일정" sheetId="1" r:id="rId1"/>
     <sheet name="세부 일정" sheetId="2" r:id="rId2"/>
+    <sheet name="게임 세부 사항" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +306,53 @@
   <si>
     <t>프로젝트 오류 수정
  - 비주얼 스튜디오 충돌 문제 발생으로 프로젝트 재설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 몬스터 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Idle (=default)
+ : 3초간 기다린 후 Patrol
+  기다리는 도중 플레이어 발견 시 Chase
+  현재 pos 저장
+* Chase
+ : 공격범위까지 이동 후 Attack
+   인식범위 벗어나면 Patrol  
+* Die
+ : 아이템 박스 떨굼
+   (ItemDropSystem에 함수 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Idle, Patrol, Attack(활 쏜다)
+ : BulletContainer에 합친다.
+   Bullet과 Arrow 통일한다…....</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,8 +474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -565,13 +624,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,6 +704,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640296CB-B611-402A-A336-C700C4406A30}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,4 +1375,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D0A4C7-EC74-4836-A13E-C91683A382DF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="236.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>